--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>weightPersonalDetailsDependent</t>
   </si>
@@ -112,6 +112,21 @@
   </si>
   <si>
     <t>Kgs</t>
+  </si>
+  <si>
+    <t>Dependent</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>Visiting</t>
+  </si>
+  <si>
+    <t>Life Long</t>
+  </si>
+  <si>
+    <t>Type of visa</t>
   </si>
 </sst>
 </file>
@@ -613,41 +628,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C17" activeCellId="1" sqref="C1 C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Lifestyle" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="SAP" sheetId="3" r:id="rId3"/>
+    <sheet name="STP" sheetId="4" r:id="rId4"/>
+    <sheet name="ScreenThreeNRI" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="119">
   <si>
     <t>weightPersonalDetailsDependent</t>
   </si>
@@ -127,12 +129,261 @@
   </si>
   <si>
     <t>Type of visa</t>
+  </si>
+  <si>
+    <t>Adolph. Blaine Charles David Earl Frederick Gerald</t>
+  </si>
+  <si>
+    <t>Adolph Blaine Charles Dav</t>
+  </si>
+  <si>
+    <t>Apartment 1 Sub-building nameThe Jam Works Building name49–5</t>
+  </si>
+  <si>
+    <t>WEST BENGAL</t>
+  </si>
+  <si>
+    <t>WEST DINAJPUR</t>
+  </si>
+  <si>
+    <t>Job-card issued by NREGA</t>
+  </si>
+  <si>
+    <t>Family Lifestyle Protection</t>
+  </si>
+  <si>
+    <t>Young &amp; Single</t>
+  </si>
+  <si>
+    <t>101 Max Life Savings Advantage Plan</t>
+  </si>
+  <si>
+    <t>Regular Pay</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>ScreenTwoTextValue</t>
+  </si>
+  <si>
+    <t>ScreenTwoDropDownValue</t>
+  </si>
+  <si>
+    <t>Address Proof same as ID Proof</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>ScreenFourTextValue</t>
+  </si>
+  <si>
+    <t>ScreenFourDropDown</t>
+  </si>
+  <si>
+    <t>ScreenFourOptionButton</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Individual Policy</t>
+  </si>
+  <si>
+    <t>Traditional</t>
+  </si>
+  <si>
+    <t>WOP Plus Rider</t>
+  </si>
+  <si>
+    <t>ScreenThreeTextValue</t>
+  </si>
+  <si>
+    <t>ScreenThreeDropDown</t>
+  </si>
+  <si>
+    <t>ScreenThreeOptionButton</t>
+  </si>
+  <si>
+    <t>Adolph. Blaine Charles. David Earl Frederick Geral</t>
+  </si>
+  <si>
+    <t>Adolph@. Blaine Charles. David Earl Frederick Gera</t>
+  </si>
+  <si>
+    <t>Adolph. Blaine Charles David Earl Frederick Gerald Hubert Irvim John Kennet</t>
+  </si>
+  <si>
+    <t>Adolph. Blaine Charles David E</t>
+  </si>
+  <si>
+    <t>ANDB0001899</t>
+  </si>
+  <si>
+    <t>ANDHRA BANK</t>
+  </si>
+  <si>
+    <t>Beltola Btl</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>High School</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Govt</t>
+  </si>
+  <si>
+    <t>Salaried</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Savings Account</t>
+  </si>
+  <si>
+    <t>ECS</t>
+  </si>
+  <si>
+    <t>Same as bank details</t>
+  </si>
+  <si>
+    <t>ScreenOneTextValue</t>
+  </si>
+  <si>
+    <t>ScreenOneOption</t>
+  </si>
+  <si>
+    <t>suniti@monocept.com</t>
+  </si>
+  <si>
+    <t>indian</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>Don't Have PAN?</t>
+  </si>
+  <si>
+    <t>Letter issued by the National Population Registrar</t>
+  </si>
+  <si>
+    <t>74 Max Life Monthly Income Advantage Plan</t>
+  </si>
+  <si>
+    <t>Compound Reversionary Bonus</t>
+  </si>
+  <si>
+    <t>ScreenTwoOptionButtonMIAP</t>
+  </si>
+  <si>
+    <t>ScreenTwoDropDownMIAP</t>
+  </si>
+  <si>
+    <t>ScreenTwoOptionButtonSTP</t>
+  </si>
+  <si>
+    <t>ScreenTwoOptionButtonSAP</t>
+  </si>
+  <si>
+    <t>ScreenTwoDropDownWLS</t>
+  </si>
+  <si>
+    <t>30 Max Life Whole Life Super</t>
+  </si>
+  <si>
+    <t>PUA</t>
+  </si>
+  <si>
+    <t>No Adjustment</t>
+  </si>
+  <si>
+    <t>ScreenTwoOptionButtonWLS</t>
+  </si>
+  <si>
+    <t>ScreenTwoTextFTSP</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>TAMIL NADU</t>
+  </si>
+  <si>
+    <t>TUTICORIN</t>
+  </si>
+  <si>
+    <t>34 Max Life Fast Track Super Plan</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>ScreenTwoDropDownFTSP</t>
+  </si>
+  <si>
+    <t>ScreenTwoOptionButtonFTSP</t>
+  </si>
+  <si>
+    <t>ULIP</t>
+  </si>
+  <si>
+    <t>FTINNoOption</t>
+  </si>
+  <si>
+    <t>Social Security Number</t>
+  </si>
+  <si>
+    <t>National Insurance Number</t>
+  </si>
+  <si>
+    <t>Citizen or Personal Identification code or number</t>
+  </si>
+  <si>
+    <t>Resident Registration Number</t>
+  </si>
+  <si>
+    <t>Other functional equivalent number</t>
+  </si>
+  <si>
+    <t>My Country does not issue any such number</t>
+  </si>
+  <si>
+    <t>Deep sea</t>
+  </si>
+  <si>
+    <t>Coastal water</t>
+  </si>
+  <si>
+    <t>Lakes</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>WhereDoYouDive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -179,7 +430,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -188,6 +439,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -485,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -630,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" activeCellId="1" sqref="C1 C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" activeCellId="1" sqref="A8 D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -690,12 +952,616 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S19"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="109.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="70.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="13" max="13" width="31.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" customWidth="1"/>
+    <col min="16" max="16" width="27.42578125" customWidth="1"/>
+    <col min="17" max="17" width="32.85546875" customWidth="1"/>
+    <col min="18" max="18" width="32.5703125" customWidth="1"/>
+    <col min="19" max="19" width="28.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2">
+        <v>122120981928</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="6">
+        <v>9717277990</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2">
+        <v>121211112112244</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="7">
+        <v>33291</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="8">
+        <v>33291</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="6">
+        <v>98760987</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>33319</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="6">
+        <v>12</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="6">
+        <v>10</v>
+      </c>
+      <c r="P6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="6">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="7">
+        <v>33291</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="6">
+        <v>22</v>
+      </c>
+      <c r="O7" s="6">
+        <v>72</v>
+      </c>
+      <c r="P7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="6">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2.3134243243234202E+17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="6">
+        <v>111111</v>
+      </c>
+      <c r="G11" s="6">
+        <v>781011005</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="6">
+        <v>9999999999</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>9999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="7">
+        <v>43514</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="6"/>
+      <c r="Q15" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="Q16" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="17:17">
+      <c r="Q17" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="17:17">
+      <c r="Q18" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="17:17">
+      <c r="Q19" s="6">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="122">
   <si>
     <t>weightPersonalDetailsDependent</t>
   </si>
@@ -375,6 +375,15 @@
   </si>
   <si>
     <t>WhereDoYouDive</t>
+  </si>
+  <si>
+    <t>premiumPaymentTermLimitedPay</t>
+  </si>
+  <si>
+    <t>premiumPaymentTermLRegularPay</t>
+  </si>
+  <si>
+    <t>premiumPaymentTermPayTill60</t>
   </si>
 </sst>
 </file>
@@ -1498,66 +1507,284 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>107</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
         <v>108</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>109</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>110</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>111</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B6" s="10"/>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>113</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="D10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="D11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="D13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="D14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="D16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
